--- a/OriginalHybridGauss/OriginalHybridGauss_resultsIn.xlsx
+++ b/OriginalHybridGauss/OriginalHybridGauss_resultsIn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -21,14 +21,14 @@
     <definedName name="_1983solution" localSheetId="4">'1983'!$A$1:$I$57</definedName>
     <definedName name="_1984solution" localSheetId="5">'1984'!$A$1:$I$57</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="1980solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1980.solution.txt" space="1" consecutive="1">
+  <connection id="1" name="1980solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1980.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -36,8 +36,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="1981solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1981.solution.txt" space="1" consecutive="1">
+  <connection id="2" name="1981solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1981.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -45,8 +45,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="1982solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1982.solution.txt" space="1" consecutive="1">
+  <connection id="3" name="1982solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1982.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -54,8 +54,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="1983solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1983.solution.txt" space="1" consecutive="1">
+  <connection id="4" name="1983solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1983.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -63,8 +63,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="1984solution" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="437" sourceFile="C:\Users\inspirion\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1984.solution.txt" space="1" consecutive="1">
+  <connection id="5" name="1984solution" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr prompt="0" codePage="437" sourceFile="C:\Users\kovalav\Documents\GitHub\EMOSA\OriginalHybridGauss\RawOut\1984.solution.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -276,9 +276,6 @@
     <t>psrf</t>
   </si>
   <si>
-    <t>11001:21000</t>
-  </si>
-  <si>
     <t>OriginalHybridGauss</t>
   </si>
   <si>
@@ -286,17 +283,20 @@
   </si>
   <si>
     <t>Hybrid</t>
+  </si>
+  <si>
+    <t>101001:201000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,7 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -484,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,19 +658,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,36 +822,36 @@
         <v>Cai_median</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>1980</v>
       </c>
       <c r="C2">
         <f>VLOOKUP(C1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.27542</v>
+        <v>0.27062000000000003</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(D1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.26787</v>
+        <v>0.27849000000000002</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(E1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.50692999999999999</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(F1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.69349000000000005</v>
+        <v>0.70623000000000002</v>
       </c>
       <c r="G2">
         <f>VLOOKUP(G1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.49976999999999999</v>
+        <v>0.50017</v>
       </c>
       <c r="H2">
         <f>VLOOKUP(H1,'1980'!$K:$L,2,FALSE)</f>
-        <v>6.3E-2</v>
+        <v>5.867E-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -875,19 +873,19 @@
       </c>
       <c r="O2">
         <f>VLOOKUP(O1,'1980'!$K:$L,2,FALSE)</f>
-        <v>-86.01</v>
+        <v>-109.7</v>
       </c>
       <c r="P2">
         <f>VLOOKUP(P1,'1980'!$K:$L,2,FALSE)</f>
-        <v>6.6059999999999999</v>
+        <v>5.9390000000000001</v>
       </c>
       <c r="Q2">
         <f>VLOOKUP(Q1,'1980'!$K:$L,2,FALSE)</f>
-        <v>-79.41</v>
+        <v>-103.8</v>
       </c>
       <c r="R2">
         <f>VLOOKUP(R1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f>VLOOKUP(S1,'1980'!$K:$L,2,FALSE)</f>
@@ -895,7 +893,7 @@
       </c>
       <c r="T2">
         <f>VLOOKUP(T1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <f>VLOOKUP(U1,'1980'!$K:$L,2,FALSE)</f>
@@ -903,7 +901,7 @@
       </c>
       <c r="V2">
         <f>VLOOKUP(V1,'1980'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <f>VLOOKUP(W1,'1980'!$K:$L,2,FALSE)</f>
@@ -939,27 +937,27 @@
       </c>
       <c r="AE2">
         <f>VLOOKUP(AE1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.26279999999999998</v>
+        <v>0.25683</v>
       </c>
       <c r="AF2">
         <f>VLOOKUP(AF1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.26476</v>
+        <v>0.28164</v>
       </c>
       <c r="AG2">
         <f>VLOOKUP(AG1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.50788</v>
+        <v>0.49936999999999998</v>
       </c>
       <c r="AH2">
         <f>VLOOKUP(AH1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.73934999999999995</v>
+        <v>0.75643000000000005</v>
       </c>
       <c r="AI2">
         <f>VLOOKUP(AI1,'1980'!$K:$L,2,FALSE)</f>
-        <v>0.50060000000000004</v>
+        <v>0.50036999999999998</v>
       </c>
       <c r="AJ2">
         <f>VLOOKUP(AJ1,'1980'!$K:$L,2,FALSE)</f>
-        <v>5.1810000000000002E-2</v>
+        <v>4.666E-2</v>
       </c>
       <c r="AK2" t="e">
         <f>VLOOKUP(AK1,'1980'!$K:$L,2,FALSE)</f>
@@ -986,36 +984,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>1981</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(C1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.20430999999999999</v>
+        <v>0.19037000000000001</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(D1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.35770999999999997</v>
+        <v>0.35986000000000001</v>
       </c>
       <c r="E3">
         <f>VLOOKUP(E1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.44594</v>
+        <v>0.41977999999999999</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(F1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.78608999999999996</v>
+        <v>0.79996999999999996</v>
       </c>
       <c r="G3">
         <f>VLOOKUP(G1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.49989</v>
+        <v>0.49974000000000002</v>
       </c>
       <c r="H3">
         <f>VLOOKUP(H1,'1981'!$K:$L,2,FALSE)</f>
-        <v>6.3339999999999994E-2</v>
+        <v>6.0240000000000002E-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1037,27 +1035,27 @@
       </c>
       <c r="O3">
         <f>VLOOKUP(O1,'1981'!$K:$L,2,FALSE)</f>
-        <v>-88.68</v>
+        <v>-109.6</v>
       </c>
       <c r="P3">
         <f>VLOOKUP(P1,'1981'!$K:$L,2,FALSE)</f>
-        <v>7.6669999999999998</v>
+        <v>6.6340000000000003</v>
       </c>
       <c r="Q3">
         <f>VLOOKUP(Q1,'1981'!$K:$L,2,FALSE)</f>
-        <v>-81.010000000000005</v>
+        <v>-103</v>
       </c>
       <c r="R3">
         <f>VLOOKUP(R1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f>VLOOKUP(S1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <f>VLOOKUP(T1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <f>VLOOKUP(U1,'1981'!$K:$L,2,FALSE)</f>
@@ -1065,7 +1063,7 @@
       </c>
       <c r="V3">
         <f>VLOOKUP(V1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <f>VLOOKUP(W1,'1981'!$K:$L,2,FALSE)</f>
@@ -1073,7 +1071,7 @@
       </c>
       <c r="X3">
         <f>VLOOKUP(X1,'1981'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="e">
         <f>VLOOKUP(Y1,'1981'!$K:$L,2,FALSE)</f>
@@ -1101,27 +1099,27 @@
       </c>
       <c r="AE3">
         <f>VLOOKUP(AE1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.19059999999999999</v>
+        <v>0.17480000000000001</v>
       </c>
       <c r="AF3">
         <f>VLOOKUP(AF1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.37930999999999998</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="AG3">
         <f>VLOOKUP(AG1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.41833999999999999</v>
+        <v>0.38408999999999999</v>
       </c>
       <c r="AH3">
         <f>VLOOKUP(AH1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.83709</v>
+        <v>0.85192000000000001</v>
       </c>
       <c r="AI3">
         <f>VLOOKUP(AI1,'1981'!$K:$L,2,FALSE)</f>
-        <v>0.49889</v>
+        <v>0.49965999999999999</v>
       </c>
       <c r="AJ3">
         <f>VLOOKUP(AJ1,'1981'!$K:$L,2,FALSE)</f>
-        <v>4.8710000000000003E-2</v>
+        <v>4.7010000000000003E-2</v>
       </c>
       <c r="AK3" t="e">
         <f>VLOOKUP(AK1,'1981'!$K:$L,2,FALSE)</f>
@@ -1148,36 +1146,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <v>1982</v>
       </c>
       <c r="C4">
         <f>VLOOKUP(C1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.21915000000000001</v>
+        <v>0.21168999999999999</v>
       </c>
       <c r="D4">
         <f>VLOOKUP(D1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.33934999999999998</v>
+        <v>0.35948999999999998</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(E1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.50456999999999996</v>
+        <v>0.50853000000000004</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(F1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.71611999999999998</v>
+        <v>0.73050000000000004</v>
       </c>
       <c r="G4">
         <f>VLOOKUP(G1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.50043000000000004</v>
+        <v>0.49992999999999999</v>
       </c>
       <c r="H4">
         <f>VLOOKUP(H1,'1982'!$K:$L,2,FALSE)</f>
-        <v>6.0679999999999998E-2</v>
+        <v>5.5109999999999999E-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1199,19 +1197,19 @@
       </c>
       <c r="O4">
         <f>VLOOKUP(O1,'1982'!$K:$L,2,FALSE)</f>
-        <v>-74.08</v>
+        <v>-96.16</v>
       </c>
       <c r="P4">
         <f>VLOOKUP(P1,'1982'!$K:$L,2,FALSE)</f>
-        <v>7.3140000000000001</v>
+        <v>6.4880000000000004</v>
       </c>
       <c r="Q4">
         <f>VLOOKUP(Q1,'1982'!$K:$L,2,FALSE)</f>
-        <v>-66.760000000000005</v>
+        <v>-89.67</v>
       </c>
       <c r="R4">
         <f>VLOOKUP(R1,'1982'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f>VLOOKUP(S1,'1982'!$K:$L,2,FALSE)</f>
@@ -1219,7 +1217,7 @@
       </c>
       <c r="T4">
         <f>VLOOKUP(T1,'1982'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <f>VLOOKUP(U1,'1982'!$K:$L,2,FALSE)</f>
@@ -1227,7 +1225,7 @@
       </c>
       <c r="V4">
         <f>VLOOKUP(V1,'1982'!$K:$L,2,FALSE)</f>
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f>VLOOKUP(W1,'1982'!$K:$L,2,FALSE)</f>
@@ -1263,27 +1261,27 @@
       </c>
       <c r="AE4">
         <f>VLOOKUP(AE1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.20413999999999999</v>
+        <v>0.20044000000000001</v>
       </c>
       <c r="AF4">
         <f>VLOOKUP(AF1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.35726999999999998</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="AG4">
         <f>VLOOKUP(AG1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.50422999999999996</v>
+        <v>0.50914999999999999</v>
       </c>
       <c r="AH4">
         <f>VLOOKUP(AH1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.77690999999999999</v>
+        <v>0.78258000000000005</v>
       </c>
       <c r="AI4">
         <f>VLOOKUP(AI1,'1982'!$K:$L,2,FALSE)</f>
-        <v>0.49965999999999999</v>
+        <v>0.49909999999999999</v>
       </c>
       <c r="AJ4">
         <f>VLOOKUP(AJ1,'1982'!$K:$L,2,FALSE)</f>
-        <v>4.6690000000000002E-2</v>
+        <v>4.3839999999999997E-2</v>
       </c>
       <c r="AK4" t="e">
         <f>VLOOKUP(AK1,'1982'!$K:$L,2,FALSE)</f>
@@ -1310,36 +1308,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>1983</v>
       </c>
       <c r="C5">
         <f>VLOOKUP(C1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.28087600000000001</v>
+        <v>0.23194000000000001</v>
       </c>
       <c r="D5">
         <f>VLOOKUP(D1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.39197900000000002</v>
+        <v>0.43731999999999999</v>
       </c>
       <c r="E5">
         <f>VLOOKUP(E1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.49665599999999999</v>
+        <v>0.45828999999999998</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(F1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.87253099999999995</v>
+        <v>0.89837999999999996</v>
       </c>
       <c r="G5">
         <f>VLOOKUP(G1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.49847999999999998</v>
+        <v>0.49996000000000002</v>
       </c>
       <c r="H5">
         <f>VLOOKUP(H1,'1983'!$K:$L,2,FALSE)</f>
-        <v>8.6576E-2</v>
+        <v>5.738E-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1361,27 +1359,27 @@
       </c>
       <c r="O5">
         <f>VLOOKUP(O1,'1983'!$K:$L,2,FALSE)</f>
-        <v>-90.3</v>
+        <v>-111.6</v>
       </c>
       <c r="P5">
         <f>VLOOKUP(P1,'1983'!$K:$L,2,FALSE)</f>
-        <v>8.9090000000000007</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="Q5">
         <f>VLOOKUP(Q1,'1983'!$K:$L,2,FALSE)</f>
-        <v>-81.400000000000006</v>
+        <v>-104.3</v>
       </c>
       <c r="R5">
         <f>VLOOKUP(R1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <f>VLOOKUP(S1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f>VLOOKUP(T1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f>VLOOKUP(U1,'1983'!$K:$L,2,FALSE)</f>
@@ -1389,7 +1387,7 @@
       </c>
       <c r="V5">
         <f>VLOOKUP(V1,'1983'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="W5">
         <f>VLOOKUP(W1,'1983'!$K:$L,2,FALSE)</f>
@@ -1425,27 +1423,27 @@
       </c>
       <c r="AE5">
         <f>VLOOKUP(AE1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.27396199999999998</v>
+        <v>0.22522</v>
       </c>
       <c r="AF5">
         <f>VLOOKUP(AF1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.40356599999999998</v>
+        <v>0.44823000000000002</v>
       </c>
       <c r="AG5">
         <f>VLOOKUP(AG1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.49337399999999998</v>
+        <v>0.44151000000000001</v>
       </c>
       <c r="AH5">
         <f>VLOOKUP(AH1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.91156300000000001</v>
+        <v>0.92903999999999998</v>
       </c>
       <c r="AI5">
         <f>VLOOKUP(AI1,'1983'!$K:$L,2,FALSE)</f>
-        <v>0.498247</v>
+        <v>0.50014999999999998</v>
       </c>
       <c r="AJ5">
         <f>VLOOKUP(AJ1,'1983'!$K:$L,2,FALSE)</f>
-        <v>7.7664999999999998E-2</v>
+        <v>4.9340000000000002E-2</v>
       </c>
       <c r="AK5" t="e">
         <f>VLOOKUP(AK1,'1983'!$K:$L,2,FALSE)</f>
@@ -1472,36 +1470,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>1984</v>
       </c>
       <c r="C6">
         <f>VLOOKUP(C1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.23707</v>
+        <v>0.20402999999999999</v>
       </c>
       <c r="D6">
         <f>VLOOKUP(D1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.30266999999999999</v>
+        <v>0.34636</v>
       </c>
       <c r="E6">
         <f>VLOOKUP(E1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.40465000000000001</v>
+        <v>0.38679000000000002</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(F1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.63993</v>
+        <v>0.69435999999999998</v>
       </c>
       <c r="G6">
         <f>VLOOKUP(G1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.49952999999999997</v>
+        <v>0.49922</v>
       </c>
       <c r="H6">
         <f>VLOOKUP(H1,'1984'!$K:$L,2,FALSE)</f>
-        <v>8.1549999999999997E-2</v>
+        <v>5.9270000000000003E-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1523,23 +1521,23 @@
       </c>
       <c r="O6">
         <f>VLOOKUP(O1,'1984'!$K:$L,2,FALSE)</f>
-        <v>-72.81</v>
+        <v>-93.95</v>
       </c>
       <c r="P6">
         <f>VLOOKUP(P1,'1984'!$K:$L,2,FALSE)</f>
-        <v>8.06</v>
+        <v>7.2770000000000001</v>
       </c>
       <c r="Q6">
         <f>VLOOKUP(Q1,'1984'!$K:$L,2,FALSE)</f>
-        <v>-64.75</v>
+        <v>-86.67</v>
       </c>
       <c r="R6">
         <f>VLOOKUP(R1,'1984'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f>VLOOKUP(S1,'1984'!$K:$L,2,FALSE)</f>
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f>VLOOKUP(T1,'1984'!$K:$L,2,FALSE)</f>
@@ -1587,27 +1585,27 @@
       </c>
       <c r="AE6">
         <f>VLOOKUP(AE1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.22614999999999999</v>
+        <v>0.19531999999999999</v>
       </c>
       <c r="AF6">
         <f>VLOOKUP(AF1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.30936999999999998</v>
+        <v>0.35410000000000003</v>
       </c>
       <c r="AG6">
         <f>VLOOKUP(AG1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.36335000000000001</v>
+        <v>0.3397</v>
       </c>
       <c r="AH6">
         <f>VLOOKUP(AH1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.66846000000000005</v>
+        <v>0.72233999999999998</v>
       </c>
       <c r="AI6">
         <f>VLOOKUP(AI1,'1984'!$K:$L,2,FALSE)</f>
-        <v>0.49994</v>
+        <v>0.49913999999999997</v>
       </c>
       <c r="AJ6">
         <f>VLOOKUP(AJ1,'1984'!$K:$L,2,FALSE)</f>
-        <v>7.0489999999999997E-2</v>
+        <v>5.2319999999999998E-2</v>
       </c>
       <c r="AK6" t="e">
         <f>VLOOKUP(AK1,'1984'!$K:$L,2,FALSE)</f>
@@ -1640,29 +1638,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1677,12 +1675,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -1692,22 +1690,22 @@
         <v>OriginalHybridGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1722,7 +1720,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1730,32 +1728,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-86.01</v>
+        <v>-109.7</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-86.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-109.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>6.6059999999999999</v>
+        <v>5.9390000000000001</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>6.6059999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.9390000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1763,17 +1761,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-79.41</v>
+        <v>-103.8</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-79.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-103.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1781,10 +1779,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1798,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1815,7 +1813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1832,10 +1830,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1864,7 +1862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1884,7 +1882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1904,21 +1902,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.69349000000000005</v>
+        <v>0.70623000000000002</v>
       </c>
       <c r="C18">
-        <v>0.22772100000000001</v>
+        <v>0.22567100000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>9.2969999999999999E-4</v>
+        <v>2.9129999999999998E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>8.3300000000000006E-3</v>
+        <v>3.2100000000000002E-3</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -1926,24 +1924,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.69349000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.70623000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>6.3E-2</v>
+        <v>5.867E-2</v>
       </c>
       <c r="C19">
-        <v>4.9012E-2</v>
+        <v>4.7711999999999997E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>2.0010000000000001E-4</v>
+        <v>6.1600000000000007E-5</v>
       </c>
       <c r="E19" s="1">
-        <v>1.5579999999999999E-3</v>
+        <v>5.8060000000000002E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -1951,24 +1949,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.867E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.26787</v>
+        <v>0.27849000000000002</v>
       </c>
       <c r="C20">
-        <v>0.14743700000000001</v>
+        <v>0.14883099999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>6.0190000000000005E-4</v>
+        <v>1.9210000000000001E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>5.7920000000000003E-3</v>
+        <v>2.3119999999999998E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -1976,24 +1974,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.26787</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.27849000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.27542</v>
+        <v>0.27062000000000003</v>
       </c>
       <c r="C21">
-        <v>0.14314399999999999</v>
+        <v>0.14213700000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>5.844E-4</v>
+        <v>1.8349999999999999E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>4.3280000000000002E-3</v>
+        <v>1.755E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -2001,24 +1999,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.27542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.27062000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.49976999999999999</v>
+        <v>0.50017</v>
       </c>
       <c r="C22">
-        <v>0.28853800000000002</v>
+        <v>0.28850199999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>1.178E-3</v>
+        <v>3.725E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.1839999999999999E-3</v>
+        <v>3.7369999999999998E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -2026,24 +2024,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.49976999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.50692999999999999</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="C23">
-        <v>0.28572799999999998</v>
+        <v>0.28539700000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>1.1659999999999999E-3</v>
+        <v>3.6840000000000001E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>5.1500000000000001E-3</v>
+        <v>2.0539999999999998E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -2051,24 +2049,24 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.50692999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>1.985E-2</v>
+        <v>2.0049999999999998E-2</v>
       </c>
       <c r="C24">
-        <v>7.3049999999999999E-3</v>
+        <v>6.0619999999999997E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>2.9819999999999999E-5</v>
+        <v>7.8250000000000005E-6</v>
       </c>
       <c r="E24" s="1">
-        <v>5.8739999999999997E-5</v>
+        <v>1.9729999999999999E-5</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -2076,24 +2074,24 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>1.985E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.0049999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25">
-        <v>1.7170000000000001E-2</v>
+        <v>1.4460000000000001E-2</v>
       </c>
       <c r="C25">
-        <v>6.1840000000000003E-3</v>
+        <v>4.2399999999999998E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>2.525E-5</v>
+        <v>5.4739999999999996E-6</v>
       </c>
       <c r="E25" s="1">
-        <v>4.0760000000000003E-5</v>
+        <v>8.4430000000000003E-6</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -2101,14 +2099,14 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>1.7170000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.4460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2125,14 +2123,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2149,24 +2147,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.17172299999999999</v>
+        <v>0.178788</v>
       </c>
       <c r="C30">
-        <v>0.54193999999999998</v>
+        <v>0.56205000000000005</v>
       </c>
       <c r="D30" s="1">
-        <v>0.73934999999999995</v>
+        <v>0.75643000000000005</v>
       </c>
       <c r="E30" s="1">
-        <v>0.88344999999999996</v>
+        <v>0.89295999999999998</v>
       </c>
       <c r="F30">
-        <v>0.98909999999999998</v>
+        <v>0.99016999999999999</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -2174,27 +2172,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.73934999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.75643000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2.196E-3</v>
+        <v>1.954E-3</v>
       </c>
       <c r="C31">
-        <v>2.3210000000000001E-2</v>
+        <v>2.0590000000000001E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>5.1810000000000002E-2</v>
+        <v>4.666E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>9.3200000000000005E-2</v>
+        <v>8.5849999999999996E-2</v>
       </c>
       <c r="F31">
-        <v>0.18040999999999999</v>
+        <v>0.17687</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -2202,27 +2200,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>5.1810000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.666E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>1.77E-2</v>
+        <v>1.8938E-2</v>
       </c>
       <c r="C32">
-        <v>0.14860000000000001</v>
+        <v>0.15784000000000001</v>
       </c>
       <c r="D32">
-        <v>0.26476</v>
+        <v>0.28164</v>
       </c>
       <c r="E32">
-        <v>0.38311000000000001</v>
+        <v>0.39739999999999998</v>
       </c>
       <c r="F32">
-        <v>0.53954999999999997</v>
+        <v>0.54154000000000002</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -2230,27 +2228,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.26476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.28164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>3.6516E-2</v>
+        <v>3.8857999999999997E-2</v>
       </c>
       <c r="C33">
-        <v>0.16952</v>
+        <v>0.16567999999999999</v>
       </c>
       <c r="D33">
-        <v>0.26279999999999998</v>
+        <v>0.25683</v>
       </c>
       <c r="E33">
-        <v>0.36840000000000001</v>
+        <v>0.35761999999999999</v>
       </c>
       <c r="F33">
-        <v>0.58687999999999996</v>
+        <v>0.58955000000000002</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -2258,27 +2256,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.26279999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.25683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>2.4239E-2</v>
+        <v>2.5219999999999999E-2</v>
       </c>
       <c r="C34">
-        <v>0.25052999999999997</v>
+        <v>0.25080000000000002</v>
       </c>
       <c r="D34">
-        <v>0.50060000000000004</v>
+        <v>0.50036999999999998</v>
       </c>
       <c r="E34">
-        <v>0.74870000000000003</v>
+        <v>0.74987999999999999</v>
       </c>
       <c r="F34">
-        <v>0.97436999999999996</v>
+        <v>0.97491000000000005</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -2286,27 +2284,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.50060000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50036999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>2.7666E-2</v>
+        <v>2.7033999999999999E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.26235999999999998</v>
+        <v>0.25547999999999998</v>
       </c>
       <c r="D35" s="4">
-        <v>0.50788</v>
+        <v>0.49936999999999998</v>
       </c>
       <c r="E35" s="4">
-        <v>0.75429999999999997</v>
+        <v>0.74572000000000005</v>
       </c>
       <c r="F35" s="3">
-        <v>0.97543999999999997</v>
+        <v>0.97353999999999996</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -2314,27 +2312,27 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.50788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49936999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36">
-        <v>1.0893999999999999E-2</v>
+        <v>1.1979E-2</v>
       </c>
       <c r="C36">
-        <v>1.494E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="D36">
-        <v>1.8239999999999999E-2</v>
+        <v>1.8859999999999998E-2</v>
       </c>
       <c r="E36">
         <v>2.282E-2</v>
       </c>
       <c r="F36">
-        <v>3.8440000000000002E-2</v>
+        <v>3.5069999999999997E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
@@ -2342,27 +2340,27 @@
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>1.8239999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.8859999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37">
-        <v>9.5750000000000002E-3</v>
+        <v>8.7899999999999992E-3</v>
       </c>
       <c r="C37">
-        <v>1.3050000000000001E-2</v>
+        <v>1.154E-2</v>
       </c>
       <c r="D37">
-        <v>1.5779999999999999E-2</v>
+        <v>1.3639999999999999E-2</v>
       </c>
       <c r="E37">
-        <v>1.9650000000000001E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="F37">
-        <v>3.2800000000000003E-2</v>
+        <v>2.4969999999999999E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
@@ -2370,10 +2368,10 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.5779999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.3639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -2387,7 +2385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="B41" t="s">
         <v>60</v>
       </c>
@@ -2409,12 +2407,12 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1.01</v>
@@ -2425,10 +2423,10 @@
       </c>
       <c r="L42">
         <f>B42</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2436,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -2447,12 +2445,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1.01</v>
@@ -2463,10 +2461,10 @@
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2474,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -2485,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2504,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2523,9 +2521,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2542,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -2573,15 +2571,15 @@
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -2600,41 +2598,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12">
       <c r="B55">
-        <v>751.41690000000006</v>
+        <v>4954.9620000000004</v>
       </c>
       <c r="C55">
-        <v>1061.6113</v>
+        <v>6804.9690000000001</v>
       </c>
       <c r="D55">
-        <v>650.37559999999996</v>
+        <v>4144.7049999999999</v>
       </c>
       <c r="E55">
-        <v>1110.4636</v>
+        <v>6576.1670000000004</v>
       </c>
       <c r="F55">
-        <v>59560.248599999999</v>
+        <v>596211.05900000001</v>
       </c>
       <c r="G55">
-        <v>3084.9681</v>
-      </c>
-      <c r="H55">
-        <v>16452.606400000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19320.587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>23100.986499999999</v>
+    <row r="57" spans="1:12">
+      <c r="B57">
+        <v>95234.668999999994</v>
+      </c>
+      <c r="C57">
+        <v>252590.49299999999</v>
       </c>
     </row>
   </sheetData>
@@ -2643,29 +2641,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2680,12 +2679,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -2695,23 +2694,23 @@
         <v>OriginalHybridGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2734,32 +2733,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-88.68</v>
+        <v>-109.6</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-88.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-109.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>7.6669999999999998</v>
+        <v>6.6340000000000003</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>7.6669999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.6340000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2767,17 +2766,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-81.010000000000005</v>
+        <v>-103</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-81.010000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2785,10 +2784,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2836,10 +2835,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -2908,21 +2907,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.78608999999999996</v>
+        <v>0.79996999999999996</v>
       </c>
       <c r="C18">
-        <v>0.186524</v>
+        <v>0.17913299999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>7.6150000000000002E-4</v>
+        <v>2.3130000000000001E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>7.587E-3</v>
+        <v>2.5219999999999999E-3</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -2930,24 +2929,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.78608999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.79996999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>6.3339999999999994E-2</v>
+        <v>6.0240000000000002E-2</v>
       </c>
       <c r="C19">
-        <v>5.4621999999999997E-2</v>
+        <v>5.0764999999999998E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>2.23E-4</v>
+        <v>6.5539999999999999E-5</v>
       </c>
       <c r="E19" s="1">
-        <v>1.9789999999999999E-3</v>
+        <v>6.5289999999999999E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -2955,24 +2954,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>6.3339999999999994E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.0240000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.35770999999999997</v>
+        <v>0.35986000000000001</v>
       </c>
       <c r="C20">
-        <v>0.131769</v>
+        <v>0.12545500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>5.3790000000000001E-4</v>
+        <v>1.6200000000000001E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>6.2214000000000002E-3</v>
+        <v>1.9859999999999999E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -2980,24 +2979,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.35770999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.35986000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.20430999999999999</v>
+        <v>0.19037000000000001</v>
       </c>
       <c r="C21">
-        <v>0.12339899999999999</v>
+        <v>0.119146</v>
       </c>
       <c r="D21" s="1">
-        <v>5.0379999999999999E-4</v>
+        <v>1.538E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>4.8082000000000003E-3</v>
+        <v>1.575E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -3005,24 +3004,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.20430999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.19037000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.49989</v>
+        <v>0.49974000000000002</v>
       </c>
       <c r="C22">
-        <v>0.28856700000000002</v>
+        <v>0.28881800000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>1.178E-3</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.1900999999999999E-3</v>
+        <v>3.723E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -3030,24 +3029,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.49989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49974000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.44594</v>
+        <v>0.41977999999999999</v>
       </c>
       <c r="C23">
-        <v>0.27352900000000002</v>
+        <v>0.27203300000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>1.1169999999999999E-3</v>
+        <v>3.5120000000000003E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>7.1881000000000002E-3</v>
+        <v>2.3809999999999999E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -3055,24 +3054,24 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.44594</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.41977999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>2.1190000000000001E-2</v>
+        <v>2.1139999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>8.2159999999999993E-3</v>
+        <v>6.5640000000000004E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>3.3540000000000001E-5</v>
+        <v>8.473E-6</v>
       </c>
       <c r="E24" s="1">
-        <v>1.106E-4</v>
+        <v>3.3290000000000001E-5</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -3080,24 +3079,24 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>2.1190000000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.1139999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25">
-        <v>1.346E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="C25">
-        <v>4.9519999999999998E-3</v>
+        <v>4.2139999999999999E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>2.022E-5</v>
+        <v>5.4399999999999996E-6</v>
       </c>
       <c r="E25" s="1">
-        <v>3.9400000000000002E-5</v>
+        <v>1.4059999999999999E-5</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -3105,14 +3104,14 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>1.346E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3129,14 +3128,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3153,24 +3152,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.295018</v>
+        <v>0.32587100000000002</v>
       </c>
       <c r="C30">
-        <v>0.69438999999999995</v>
+        <v>0.71321999999999997</v>
       </c>
       <c r="D30" s="1">
-        <v>0.83709</v>
+        <v>0.85192000000000001</v>
       </c>
       <c r="E30" s="1">
-        <v>0.93045</v>
+        <v>0.93684999999999996</v>
       </c>
       <c r="F30">
-        <v>0.99382999999999999</v>
+        <v>0.99436000000000002</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -3178,27 +3177,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.83709</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.85192000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2.0999999999999999E-3</v>
+        <v>2.1640000000000001E-3</v>
       </c>
       <c r="C31">
-        <v>2.1739999999999999E-2</v>
+        <v>2.1680000000000001E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>4.8710000000000003E-2</v>
+        <v>4.7010000000000003E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>8.9749999999999996E-2</v>
+        <v>8.5260000000000002E-2</v>
       </c>
       <c r="F31">
-        <v>0.20719000000000001</v>
+        <v>0.19152</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -3206,27 +3205,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>4.8710000000000003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.7010000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>5.8222000000000003E-2</v>
+        <v>7.2378999999999999E-2</v>
       </c>
       <c r="C32">
-        <v>0.27655999999999997</v>
+        <v>0.28083999999999998</v>
       </c>
       <c r="D32">
-        <v>0.37930999999999998</v>
+        <v>0.37880000000000003</v>
       </c>
       <c r="E32">
-        <v>0.45789000000000002</v>
+        <v>0.45648</v>
       </c>
       <c r="F32">
-        <v>0.55610000000000004</v>
+        <v>0.54971000000000003</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -3234,27 +3233,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.37930999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.37880000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>1.8033E-2</v>
+        <v>1.5209E-2</v>
       </c>
       <c r="C33">
-        <v>0.11125</v>
+        <v>9.8979999999999999E-2</v>
       </c>
       <c r="D33">
-        <v>0.19059999999999999</v>
+        <v>0.17480000000000001</v>
       </c>
       <c r="E33">
-        <v>0.27706999999999998</v>
+        <v>0.26162999999999997</v>
       </c>
       <c r="F33">
-        <v>0.49334</v>
+        <v>0.46639000000000003</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -3262,27 +3261,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.19059999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.17480000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>2.5683999999999998E-2</v>
+        <v>2.4698999999999999E-2</v>
       </c>
       <c r="C34">
-        <v>0.24954999999999999</v>
+        <v>0.24953</v>
       </c>
       <c r="D34">
-        <v>0.49889</v>
+        <v>0.49965999999999999</v>
       </c>
       <c r="E34">
-        <v>0.74955000000000005</v>
+        <v>0.74963000000000002</v>
       </c>
       <c r="F34">
-        <v>0.9748</v>
+        <v>0.97511000000000003</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -3290,27 +3289,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.49889</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49965999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>2.4485E-2</v>
+        <v>2.0084000000000001E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.21401000000000001</v>
+        <v>0.18861</v>
       </c>
       <c r="D35" s="4">
-        <v>0.41833999999999999</v>
+        <v>0.38408999999999999</v>
       </c>
       <c r="E35" s="4">
-        <v>0.66640999999999995</v>
+        <v>0.63029000000000002</v>
       </c>
       <c r="F35" s="3">
-        <v>0.95848999999999995</v>
+        <v>0.95172999999999996</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -3318,27 +3317,27 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.41833999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.38408999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36">
-        <v>1.1266E-2</v>
+        <v>1.2432E-2</v>
       </c>
       <c r="C36">
-        <v>1.5740000000000001E-2</v>
+        <v>1.6619999999999999E-2</v>
       </c>
       <c r="D36">
-        <v>1.9349999999999999E-2</v>
+        <v>1.984E-2</v>
       </c>
       <c r="E36">
-        <v>2.4389999999999998E-2</v>
+        <v>2.4160000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>4.2290000000000001E-2</v>
+        <v>3.7510000000000002E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
@@ -3346,27 +3345,27 @@
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>1.9349999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.984E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37">
-        <v>7.3309999999999998E-3</v>
+        <v>8.2150000000000001E-3</v>
       </c>
       <c r="C37">
-        <v>1.014E-2</v>
+        <v>1.091E-2</v>
       </c>
       <c r="D37">
-        <v>1.239E-2</v>
+        <v>1.2959999999999999E-2</v>
       </c>
       <c r="E37">
-        <v>1.549E-2</v>
+        <v>1.5720000000000001E-2</v>
       </c>
       <c r="F37">
-        <v>2.605E-2</v>
+        <v>2.4240000000000001E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
@@ -3374,10 +3373,10 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.239E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.2959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="B41" t="s">
         <v>60</v>
       </c>
@@ -3413,15 +3412,15 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -3429,18 +3428,18 @@
       </c>
       <c r="L42">
         <f>B42</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -3448,18 +3447,18 @@
       </c>
       <c r="L43">
         <f t="shared" ref="L43:L49" si="6">B43</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -3467,18 +3466,18 @@
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -3486,10 +3485,10 @@
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -3527,9 +3526,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3546,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3577,15 +3576,15 @@
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -3604,41 +3603,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12">
       <c r="B55">
-        <v>616.74260000000004</v>
+        <v>5071.9740000000002</v>
       </c>
       <c r="C55">
-        <v>806.47720000000004</v>
+        <v>6072.3890000000001</v>
       </c>
       <c r="D55">
-        <v>445.24360000000001</v>
+        <v>3997.92</v>
       </c>
       <c r="E55">
-        <v>680.7681</v>
+        <v>5736.42</v>
       </c>
       <c r="F55">
-        <v>58828.117700000003</v>
+        <v>602045.43599999999</v>
       </c>
       <c r="G55">
-        <v>1485.9444000000001</v>
-      </c>
-      <c r="H55">
-        <v>5909.3383999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>13068.995999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>16163.766299999999</v>
+    <row r="57" spans="1:12">
+      <c r="B57">
+        <v>39210.21</v>
+      </c>
+      <c r="C57">
+        <v>89998.885999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3647,30 +3646,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3685,12 +3684,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -3700,23 +3699,23 @@
         <v>OriginalHybridGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3739,32 +3738,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-74.08</v>
+        <v>-96.16</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-74.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-96.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>7.3140000000000001</v>
+        <v>6.4880000000000004</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>7.3140000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.4880000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -3772,17 +3771,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-66.760000000000005</v>
+        <v>-89.67</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-66.760000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-89.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3790,10 +3789,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3841,10 +3840,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -3913,21 +3912,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.71611999999999998</v>
+        <v>0.73050000000000004</v>
       </c>
       <c r="C18">
-        <v>0.23097799999999999</v>
+        <v>0.21578800000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>9.4300000000000004E-4</v>
+        <v>2.786E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>7.3130000000000001E-3</v>
+        <v>2.4580000000000001E-3</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -3935,24 +3934,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.71611999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.73050000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>6.0679999999999998E-2</v>
+        <v>5.5109999999999999E-2</v>
       </c>
       <c r="C19">
-        <v>5.2860999999999998E-2</v>
+        <v>4.5490000000000003E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>2.1579999999999999E-4</v>
+        <v>5.8730000000000002E-5</v>
       </c>
       <c r="E19" s="1">
-        <v>1.32E-3</v>
+        <v>3.8279999999999998E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -3960,24 +3959,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>6.0679999999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.5109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.33934999999999998</v>
+        <v>0.35948999999999998</v>
       </c>
       <c r="C20">
-        <v>0.14416599999999999</v>
+        <v>0.13451199999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>5.886E-4</v>
+        <v>1.7369999999999999E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>4.8019999999999998E-3</v>
+        <v>1.5839999999999999E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -3985,24 +3984,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.33934999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.35948999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.21915000000000001</v>
+        <v>0.21168999999999999</v>
       </c>
       <c r="C21">
-        <v>0.130802</v>
+        <v>0.118938</v>
       </c>
       <c r="D21" s="1">
-        <v>5.3399999999999997E-4</v>
+        <v>1.5349999999999999E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>2.934E-3</v>
+        <v>9.4200000000000002E-4</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -4010,24 +4009,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.21915000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.21168999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.50043000000000004</v>
+        <v>0.49992999999999999</v>
       </c>
       <c r="C22">
-        <v>0.28922999999999999</v>
+        <v>0.28884199999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>1.181E-3</v>
+        <v>3.7290000000000001E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.181E-3</v>
+        <v>3.725E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -4035,24 +4034,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.50043000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49992999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.50456999999999996</v>
+        <v>0.50853000000000004</v>
       </c>
       <c r="C23">
-        <v>0.28307300000000002</v>
+        <v>0.28081600000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>1.1559999999999999E-3</v>
+        <v>3.6249999999999998E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>3.7399999999999998E-3</v>
+        <v>1.3960000000000001E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -4060,24 +4059,24 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.50456999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50853000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>2.494E-2</v>
+        <v>2.2780000000000002E-2</v>
       </c>
       <c r="C24">
-        <v>9.8340000000000007E-3</v>
+        <v>7.1320000000000003E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>4.015E-5</v>
+        <v>9.2080000000000006E-6</v>
       </c>
       <c r="E24" s="1">
-        <v>1.205E-4</v>
+        <v>2.7149999999999999E-5</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -4085,24 +4084,24 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>2.494E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.2780000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25">
-        <v>2.9180000000000001E-2</v>
+        <v>2.511E-2</v>
       </c>
       <c r="C25">
-        <v>1.0538E-2</v>
+        <v>7.4229999999999999E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>4.3019999999999998E-5</v>
+        <v>9.5829999999999996E-6</v>
       </c>
       <c r="E25" s="1">
-        <v>7.3319999999999996E-5</v>
+        <v>1.7090000000000001E-5</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -4110,14 +4109,14 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.9180000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.511E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
@@ -4134,14 +4133,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -4158,24 +4157,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.156776</v>
+        <v>0.198101</v>
       </c>
       <c r="C30">
-        <v>0.57786000000000004</v>
+        <v>0.60555999999999999</v>
       </c>
       <c r="D30" s="1">
-        <v>0.77690999999999999</v>
+        <v>0.78258000000000005</v>
       </c>
       <c r="E30" s="1">
-        <v>0.90419000000000005</v>
+        <v>0.90461000000000003</v>
       </c>
       <c r="F30">
-        <v>0.99126999999999998</v>
+        <v>0.99121999999999999</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -4183,27 +4182,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.77690999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.78258000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2.0079999999999998E-3</v>
+        <v>2.0240000000000002E-3</v>
       </c>
       <c r="C31">
-        <v>2.104E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>4.6690000000000002E-2</v>
+        <v>4.3839999999999997E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>8.5239999999999996E-2</v>
+        <v>7.7829999999999996E-2</v>
       </c>
       <c r="F31">
-        <v>0.20035</v>
+        <v>0.17154</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -4211,27 +4210,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>4.6690000000000002E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.3839999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>4.2620999999999999E-2</v>
+        <v>6.6095000000000001E-2</v>
       </c>
       <c r="C32">
-        <v>0.23588000000000001</v>
+        <v>0.26998</v>
       </c>
       <c r="D32">
-        <v>0.35726999999999998</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="E32">
-        <v>0.45218000000000003</v>
+        <v>0.46251999999999999</v>
       </c>
       <c r="F32">
-        <v>0.57040999999999997</v>
+        <v>0.57438999999999996</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -4239,27 +4238,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.35726999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.37619999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>1.9539999999999998E-2</v>
+        <v>2.2128999999999999E-2</v>
       </c>
       <c r="C33">
-        <v>0.12152</v>
+        <v>0.12286</v>
       </c>
       <c r="D33">
-        <v>0.20413999999999999</v>
+        <v>0.20044000000000001</v>
       </c>
       <c r="E33">
-        <v>0.29620000000000002</v>
+        <v>0.28444000000000003</v>
       </c>
       <c r="F33">
-        <v>0.52186999999999995</v>
+        <v>0.48020000000000002</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -4267,27 +4266,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.20413999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.20044000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>2.5308000000000001E-2</v>
+        <v>2.4875000000000001E-2</v>
       </c>
       <c r="C34">
-        <v>0.25035000000000002</v>
+        <v>0.24970000000000001</v>
       </c>
       <c r="D34">
-        <v>0.49965999999999999</v>
+        <v>0.49909999999999999</v>
       </c>
       <c r="E34">
-        <v>0.75095999999999996</v>
+        <v>0.75036999999999998</v>
       </c>
       <c r="F34">
-        <v>0.97436</v>
+        <v>0.97506999999999999</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -4295,27 +4294,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.49965999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49909999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>3.0064E-2</v>
+        <v>3.1161999999999999E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.26440999999999998</v>
+        <v>0.27226</v>
       </c>
       <c r="D35" s="4">
-        <v>0.50422999999999996</v>
+        <v>0.50914999999999999</v>
       </c>
       <c r="E35" s="4">
-        <v>0.74665000000000004</v>
+        <v>0.74817</v>
       </c>
       <c r="F35" s="3">
-        <v>0.97382999999999997</v>
+        <v>0.97440000000000004</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -4323,27 +4322,27 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.50422999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50914999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36">
-        <v>1.3216E-2</v>
+        <v>1.3405E-2</v>
       </c>
       <c r="C36">
-        <v>1.84E-2</v>
+        <v>1.789E-2</v>
       </c>
       <c r="D36">
-        <v>2.2700000000000001E-2</v>
+        <v>2.1350000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>2.8830000000000001E-2</v>
+        <v>2.6009999999999998E-2</v>
       </c>
       <c r="F36">
-        <v>4.9970000000000001E-2</v>
+        <v>4.0509999999999997E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
@@ -4351,27 +4350,27 @@
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>2.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.1350000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37">
-        <v>1.6157000000000001E-2</v>
+        <v>1.5221E-2</v>
       </c>
       <c r="C37">
-        <v>2.2069999999999999E-2</v>
+        <v>2.002E-2</v>
       </c>
       <c r="D37">
-        <v>2.6880000000000001E-2</v>
+        <v>2.3650000000000001E-2</v>
       </c>
       <c r="E37">
-        <v>3.3550000000000003E-2</v>
+        <v>2.853E-2</v>
       </c>
       <c r="F37">
-        <v>5.57E-2</v>
+        <v>4.3549999999999998E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
@@ -4379,10 +4378,10 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>2.6880000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.3650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="B41" t="s">
         <v>60</v>
       </c>
@@ -4418,15 +4417,15 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -4434,10 +4433,10 @@
       </c>
       <c r="L42">
         <f>B42</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -4456,15 +4455,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -4472,10 +4471,10 @@
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -4513,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -4532,9 +4531,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4551,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4570,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -4582,15 +4581,15 @@
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -4609,41 +4608,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12">
       <c r="B55">
-        <v>1043.404</v>
+        <v>7726.1109999999999</v>
       </c>
       <c r="C55">
-        <v>1614.2691</v>
+        <v>14135.242</v>
       </c>
       <c r="D55">
-        <v>916.57420000000002</v>
+        <v>7223.7240000000002</v>
       </c>
       <c r="E55">
-        <v>2029.9434000000001</v>
+        <v>15954.677</v>
       </c>
       <c r="F55">
-        <v>60000</v>
+        <v>601308.46699999995</v>
       </c>
       <c r="G55">
-        <v>5742.2912999999999</v>
-      </c>
-      <c r="H55">
-        <v>6986.1544999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40482.321000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>20822.253499999999</v>
+    <row r="57" spans="1:12">
+      <c r="B57">
+        <v>69435.042000000001</v>
+      </c>
+      <c r="C57">
+        <v>188765.34599999999</v>
       </c>
     </row>
   </sheetData>
@@ -4652,29 +4651,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4689,12 +4688,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -4704,23 +4703,23 @@
         <v>OriginalHybridGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4743,32 +4742,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-90.3</v>
+        <v>-111.6</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-90.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-111.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>8.9090000000000007</v>
+        <v>7.3330000000000002</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>8.9090000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.3330000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -4776,17 +4775,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-81.400000000000006</v>
+        <v>-104.3</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-81.400000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>-104.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4794,10 +4793,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4811,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4828,7 +4827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -4845,10 +4844,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -4917,21 +4916,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.87253099999999995</v>
+        <v>0.89837999999999996</v>
       </c>
       <c r="C18">
-        <v>0.12811600000000001</v>
+        <v>0.101297</v>
       </c>
       <c r="D18" s="1">
-        <v>5.2300000000000003E-4</v>
+        <v>1.3080000000000001E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>4.6610000000000002E-3</v>
+        <v>1.036E-3</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -4939,24 +4938,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.87253099999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.89837999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>8.6576E-2</v>
+        <v>5.738E-2</v>
       </c>
       <c r="C19">
-        <v>5.8245999999999999E-2</v>
+        <v>4.2243999999999997E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>2.3780000000000001E-4</v>
+        <v>5.4540000000000003E-5</v>
       </c>
       <c r="E19" s="1">
-        <v>2.581E-3</v>
+        <v>4.9700000000000005E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -4964,24 +4963,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>8.6576E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.738E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.39197900000000002</v>
+        <v>0.43731999999999999</v>
       </c>
       <c r="C20">
-        <v>0.113955</v>
+        <v>9.1094999999999995E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>4.6519999999999998E-4</v>
+        <v>1.176E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>6.1000000000000004E-3</v>
+        <v>1.2509999999999999E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -4989,24 +4988,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.39197900000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.43731999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.28087600000000001</v>
+        <v>0.23194000000000001</v>
       </c>
       <c r="C21">
-        <v>0.12526999999999999</v>
+        <v>0.108075</v>
       </c>
       <c r="D21" s="1">
-        <v>5.1139999999999996E-4</v>
+        <v>1.395E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>6.9569999999999996E-3</v>
+        <v>1.5969999999999999E-3</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -5014,24 +5013,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.28087600000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.23194000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.49847999999999998</v>
+        <v>0.49996000000000002</v>
       </c>
       <c r="C22">
-        <v>0.28843400000000002</v>
+        <v>0.28875299999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>1.178E-3</v>
+        <v>3.7280000000000001E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.178E-3</v>
+        <v>3.7280000000000001E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -5039,24 +5038,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.49847999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49996000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.49665599999999999</v>
+        <v>0.45828999999999998</v>
       </c>
       <c r="C23">
-        <v>0.27492299999999997</v>
+        <v>0.27607799999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>1.122E-3</v>
+        <v>3.5639999999999999E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>9.7380000000000001E-3</v>
+        <v>3.0309999999999998E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -5064,24 +5063,24 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.49665599999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.45828999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>2.8081999999999999E-2</v>
+        <v>2.4709999999999999E-2</v>
       </c>
       <c r="C24">
-        <v>1.1056E-2</v>
+        <v>7.7149999999999996E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>4.5139999999999998E-5</v>
+        <v>9.9599999999999995E-6</v>
       </c>
       <c r="E24" s="1">
-        <v>1.593E-4</v>
+        <v>3.5930000000000003E-5</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -5089,24 +5088,24 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>2.8081999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.4709999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25">
-        <v>9.6860000000000002E-3</v>
+        <v>1.073E-2</v>
       </c>
       <c r="C25">
-        <v>4.0569999999999998E-3</v>
+        <v>3.4459999999999998E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>1.6560000000000001E-5</v>
+        <v>4.4490000000000001E-6</v>
       </c>
       <c r="E25" s="1">
-        <v>7.1559999999999999E-5</v>
+        <v>1.508E-5</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -5114,14 +5113,14 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>9.6860000000000002E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.073E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
@@ -5138,14 +5137,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -5162,24 +5161,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.52497499999999997</v>
+        <v>0.62552200000000002</v>
       </c>
       <c r="C30">
-        <v>0.82464000000000004</v>
+        <v>0.859657</v>
       </c>
       <c r="D30" s="1">
-        <v>0.91156300000000001</v>
+        <v>0.92903999999999998</v>
       </c>
       <c r="E30" s="1">
-        <v>0.96284999999999998</v>
+        <v>0.97021000000000002</v>
       </c>
       <c r="F30">
-        <v>0.99665000000000004</v>
+        <v>0.99733000000000005</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -5187,27 +5186,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.91156300000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.92903999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>4.9769999999999997E-3</v>
+        <v>2.7799999999999999E-3</v>
       </c>
       <c r="C31">
-        <v>4.2119999999999998E-2</v>
+        <v>2.5111999999999999E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>7.7664999999999998E-2</v>
+        <v>4.9340000000000002E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>0.11952</v>
+        <v>8.0240000000000006E-2</v>
       </c>
       <c r="F31">
-        <v>0.22691</v>
+        <v>0.16048999999999999</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -5215,27 +5214,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>7.7664999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.9340000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>0.140098</v>
+        <v>0.22625500000000001</v>
       </c>
       <c r="C32">
-        <v>0.32036999999999999</v>
+        <v>0.38499800000000001</v>
       </c>
       <c r="D32">
-        <v>0.40356599999999998</v>
+        <v>0.44823000000000002</v>
       </c>
       <c r="E32">
-        <v>0.47261999999999998</v>
+        <v>0.50253000000000003</v>
       </c>
       <c r="F32">
-        <v>0.58555999999999997</v>
+        <v>0.58194000000000001</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -5243,27 +5242,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.40356599999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.44823000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>6.0594000000000002E-2</v>
+        <v>4.5886999999999997E-2</v>
       </c>
       <c r="C33">
-        <v>0.19001999999999999</v>
+        <v>0.15264</v>
       </c>
       <c r="D33">
-        <v>0.27396199999999998</v>
+        <v>0.22522</v>
       </c>
       <c r="E33">
-        <v>0.36103000000000002</v>
+        <v>0.30238999999999999</v>
       </c>
       <c r="F33">
-        <v>0.55196000000000001</v>
+        <v>0.46061000000000002</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -5271,27 +5270,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.27396199999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.22522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>2.53E-2</v>
+        <v>2.4886999999999999E-2</v>
       </c>
       <c r="C34">
-        <v>0.24739</v>
+        <v>0.24988099999999999</v>
       </c>
       <c r="D34">
-        <v>0.498247</v>
+        <v>0.50014999999999998</v>
       </c>
       <c r="E34">
-        <v>0.74809999999999999</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="F34">
-        <v>0.97546999999999995</v>
+        <v>0.97502</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -5299,27 +5298,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.498247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.50014999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>3.3563000000000003E-2</v>
+        <v>2.3833E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.26751000000000003</v>
+        <v>0.22205900000000001</v>
       </c>
       <c r="D35" s="4">
-        <v>0.49337399999999998</v>
+        <v>0.44151000000000001</v>
       </c>
       <c r="E35" s="4">
-        <v>0.72529999999999994</v>
+        <v>0.68206</v>
       </c>
       <c r="F35" s="3">
-        <v>0.96909000000000001</v>
+        <v>0.96153999999999995</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -5327,27 +5326,27 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.49337399999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.44151000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36">
-        <v>1.5077999999999999E-2</v>
+        <v>1.4664E-2</v>
       </c>
       <c r="C36">
-        <v>2.0899999999999998E-2</v>
+        <v>1.9451E-2</v>
       </c>
       <c r="D36">
-        <v>2.5613E-2</v>
+        <v>2.3130000000000001E-2</v>
       </c>
       <c r="E36">
-        <v>3.2300000000000002E-2</v>
+        <v>2.8150000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>5.5539999999999999E-2</v>
+        <v>4.4089999999999997E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
@@ -5355,27 +5354,27 @@
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>2.5613E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.3130000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37">
-        <v>4.9579999999999997E-3</v>
+        <v>6.2579999999999997E-3</v>
       </c>
       <c r="C37">
-        <v>7.0099999999999997E-3</v>
+        <v>8.3840000000000008E-3</v>
       </c>
       <c r="D37">
-        <v>8.7469999999999996E-3</v>
+        <v>1.0030000000000001E-2</v>
       </c>
       <c r="E37">
-        <v>1.123E-2</v>
+        <v>1.226E-2</v>
       </c>
       <c r="F37">
-        <v>2.0039999999999999E-2</v>
+        <v>1.932E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
@@ -5383,10 +5382,10 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>8.7469999999999996E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.0030000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="B41" t="s">
         <v>60</v>
       </c>
@@ -5422,15 +5421,15 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -5438,10 +5437,10 @@
       </c>
       <c r="L42">
         <f>B42</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -5460,15 +5459,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
       <c r="B44">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -5476,18 +5475,18 @@
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -5495,10 +5494,10 @@
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -5536,9 +5535,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5555,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="5"/>
@@ -5574,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -5586,15 +5585,15 @@
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -5613,41 +5612,41 @@
       <c r="G54" t="s">
         <v>4</v>
       </c>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12">
       <c r="B55">
-        <v>850.50699999999995</v>
+        <v>9758.61</v>
       </c>
       <c r="C55">
-        <v>592.25890000000004</v>
+        <v>7265.1220000000003</v>
       </c>
       <c r="D55">
-        <v>362.64690000000002</v>
+        <v>5331.5190000000002</v>
       </c>
       <c r="E55">
-        <v>347.00970000000001</v>
+        <v>4580.4179999999997</v>
       </c>
       <c r="F55">
-        <v>60000</v>
+        <v>600000</v>
       </c>
       <c r="G55">
-        <v>808.87009999999998</v>
-      </c>
-      <c r="H55">
-        <v>5956.6665999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8304.0709999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="B57">
-        <v>3989.9160000000002</v>
+        <v>46956.866000000002</v>
+      </c>
+      <c r="C57">
+        <v>53200.928</v>
       </c>
     </row>
   </sheetData>
@@ -5656,29 +5655,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5693,12 +5692,12 @@
         <v>Gauss</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -5708,22 +5707,22 @@
         <v>OriginalHybridGauss</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="2">
         <f>B3</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5746,32 +5745,32 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>-72.81</v>
+        <v>-93.95</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5">
         <f>C5</f>
-        <v>-72.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-93.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>8.06</v>
+        <v>7.2770000000000001</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="L6">
         <f>B6</f>
-        <v>8.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7.2770000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -5779,17 +5778,17 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-64.75</v>
+        <v>-86.67</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
       <c r="L7">
         <f>C7</f>
-        <v>-64.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>-86.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5797,10 +5796,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5848,10 +5847,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -5900,7 +5899,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -5920,21 +5919,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>0.63993</v>
+        <v>0.69435999999999998</v>
       </c>
       <c r="C18">
-        <v>0.22773399999999999</v>
+        <v>0.200517</v>
       </c>
       <c r="D18" s="1">
-        <v>9.2969999999999999E-4</v>
+        <v>2.589E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>6.6610000000000003E-3</v>
+        <v>1.9239999999999999E-3</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" ref="K18:L25" si="0">A18</f>
@@ -5942,24 +5941,24 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.63993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.69435999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>8.1549999999999997E-2</v>
+        <v>5.9270000000000003E-2</v>
       </c>
       <c r="C19">
-        <v>5.8957000000000002E-2</v>
+        <v>4.1477E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>2.407E-4</v>
+        <v>5.3550000000000001E-5</v>
       </c>
       <c r="E19" s="1">
-        <v>1.237E-3</v>
+        <v>2.519E-4</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -5967,24 +5966,24 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>8.1549999999999997E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.9270000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.30266999999999999</v>
+        <v>0.34636</v>
       </c>
       <c r="C20">
-        <v>0.118813</v>
+        <v>0.102835</v>
       </c>
       <c r="D20" s="1">
-        <v>4.8509999999999997E-4</v>
+        <v>1.328E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>3.7950000000000002E-3</v>
+        <v>1.0020000000000001E-3</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -5992,24 +5991,24 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.30266999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.34636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>0.23707</v>
+        <v>0.20402999999999999</v>
       </c>
       <c r="C21">
-        <v>0.117244</v>
+        <v>0.10173500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>4.7859999999999998E-4</v>
+        <v>1.3129999999999999E-4</v>
       </c>
       <c r="E21" s="1">
-        <v>3.1870000000000002E-3</v>
+        <v>8.2709999999999999E-4</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -6017,24 +6016,24 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.23707</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.20402999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>0.49952999999999997</v>
+        <v>0.49922</v>
       </c>
       <c r="C22">
-        <v>0.28917100000000001</v>
+        <v>0.28865099999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>1.181E-3</v>
+        <v>3.726E-4</v>
       </c>
       <c r="E22" s="1">
-        <v>1.1900000000000001E-3</v>
+        <v>3.7159999999999998E-4</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -6042,24 +6041,24 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>0.49952999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.40465000000000001</v>
+        <v>0.38679000000000002</v>
       </c>
       <c r="C23">
-        <v>0.27479999999999999</v>
+        <v>0.27150200000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>1.122E-3</v>
+        <v>3.5050000000000001E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>5.0699999999999999E-3</v>
+        <v>1.768E-3</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -6067,24 +6066,24 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>0.40465000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.38679000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
-        <v>3.7019999999999997E-2</v>
+        <v>3.092E-2</v>
       </c>
       <c r="C24">
-        <v>1.4555999999999999E-2</v>
+        <v>9.5910000000000006E-3</v>
       </c>
       <c r="D24" s="1">
-        <v>5.9429999999999999E-5</v>
+        <v>1.238E-5</v>
       </c>
       <c r="E24" s="1">
-        <v>1.6119999999999999E-4</v>
+        <v>2.9709999999999998E-5</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -6092,24 +6091,24 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>3.7019999999999997E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.092E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>53</v>
       </c>
       <c r="B25">
-        <v>2.1329999999999998E-2</v>
+        <v>2.068E-2</v>
       </c>
       <c r="C25">
-        <v>7.9220000000000002E-3</v>
+        <v>6.2849999999999998E-3</v>
       </c>
       <c r="D25" s="1">
-        <v>3.2339999999999999E-5</v>
+        <v>8.1130000000000001E-6</v>
       </c>
       <c r="E25" s="1">
-        <v>6.3810000000000001E-5</v>
+        <v>1.6820000000000002E-5</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -6117,14 +6116,14 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.1329999999999998E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.068E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>2</v>
       </c>
@@ -6141,14 +6140,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -6165,24 +6164,24 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30">
-        <v>0.14030400000000001</v>
+        <v>0.234819</v>
       </c>
       <c r="C30">
-        <v>0.48441000000000001</v>
+        <v>0.56774000000000002</v>
       </c>
       <c r="D30" s="1">
-        <v>0.66846000000000005</v>
+        <v>0.72233999999999998</v>
       </c>
       <c r="E30" s="1">
-        <v>0.82323999999999997</v>
+        <v>0.85318000000000005</v>
       </c>
       <c r="F30">
-        <v>0.98019000000000001</v>
+        <v>0.98334999999999995</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" ref="K30:K37" si="1">CONCATENATE(A30,"_median")</f>
@@ -6190,27 +6189,27 @@
       </c>
       <c r="L30">
         <f t="shared" ref="L30:L37" si="2">D30</f>
-        <v>0.66846000000000005</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.72233999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>4.3319999999999999E-3</v>
+        <v>3.1960000000000001E-3</v>
       </c>
       <c r="C31">
-        <v>3.696E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>7.0489999999999997E-2</v>
+        <v>5.2319999999999998E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>0.11321000000000001</v>
+        <v>8.2669999999999993E-2</v>
       </c>
       <c r="F31">
-        <v>0.22572999999999999</v>
+        <v>0.15759000000000001</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
@@ -6218,27 +6217,27 @@
       </c>
       <c r="L31">
         <f t="shared" si="2"/>
-        <v>7.0489999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.2319999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>6.3292000000000001E-2</v>
+        <v>0.121166</v>
       </c>
       <c r="C32">
-        <v>0.22045999999999999</v>
+        <v>0.28170000000000001</v>
       </c>
       <c r="D32">
-        <v>0.30936999999999998</v>
+        <v>0.35410000000000003</v>
       </c>
       <c r="E32">
-        <v>0.38807999999999998</v>
+        <v>0.41942000000000002</v>
       </c>
       <c r="F32">
-        <v>0.52048000000000005</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
@@ -6246,27 +6245,27 @@
       </c>
       <c r="L32">
         <f t="shared" si="2"/>
-        <v>0.30936999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.35410000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>4.0368000000000001E-2</v>
+        <v>3.2858999999999999E-2</v>
       </c>
       <c r="C33">
-        <v>0.15125</v>
+        <v>0.12866</v>
       </c>
       <c r="D33">
-        <v>0.22614999999999999</v>
+        <v>0.19531999999999999</v>
       </c>
       <c r="E33">
-        <v>0.31161</v>
+        <v>0.27076</v>
       </c>
       <c r="F33">
-        <v>0.49382999999999999</v>
+        <v>0.42183999999999999</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
@@ -6274,27 +6273,27 @@
       </c>
       <c r="L33">
         <f t="shared" si="2"/>
-        <v>0.22614999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.19531999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="1">
-        <v>2.4719000000000001E-2</v>
+        <v>2.5097000000000001E-2</v>
       </c>
       <c r="C34">
-        <v>0.24883</v>
+        <v>0.24904000000000001</v>
       </c>
       <c r="D34">
-        <v>0.49994</v>
+        <v>0.49913999999999997</v>
       </c>
       <c r="E34">
-        <v>0.75049999999999994</v>
+        <v>0.74902000000000002</v>
       </c>
       <c r="F34">
-        <v>0.97509999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
@@ -6302,27 +6301,27 @@
       </c>
       <c r="L34">
         <f t="shared" si="2"/>
-        <v>0.49994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.49913999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>1.6230999999999999E-2</v>
+        <v>1.4625000000000001E-2</v>
       </c>
       <c r="C35" s="4">
-        <v>0.16775999999999999</v>
+        <v>0.15386</v>
       </c>
       <c r="D35" s="4">
-        <v>0.36335000000000001</v>
+        <v>0.3397</v>
       </c>
       <c r="E35" s="4">
-        <v>0.61485999999999996</v>
+        <v>0.5887</v>
       </c>
       <c r="F35" s="3">
-        <v>0.94974000000000003</v>
+        <v>0.94421999999999995</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
@@ -6330,27 +6329,27 @@
       </c>
       <c r="L35">
         <f t="shared" si="2"/>
-        <v>0.36335000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.3397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1">
-        <v>1.9803999999999999E-2</v>
+        <v>1.8384000000000001E-2</v>
       </c>
       <c r="C36">
-        <v>2.7459999999999998E-2</v>
+        <v>2.435E-2</v>
       </c>
       <c r="D36">
-        <v>3.363E-2</v>
+        <v>2.8969999999999999E-2</v>
       </c>
       <c r="E36">
-        <v>4.2610000000000002E-2</v>
+        <v>3.5180000000000003E-2</v>
       </c>
       <c r="F36">
-        <v>7.4380000000000002E-2</v>
+        <v>5.5050000000000002E-2</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
@@ -6358,27 +6357,27 @@
       </c>
       <c r="L36">
         <f t="shared" si="2"/>
-        <v>3.363E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.8969999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="1">
-        <v>1.1586000000000001E-2</v>
+        <v>1.2314E-2</v>
       </c>
       <c r="C37">
-        <v>1.609E-2</v>
+        <v>1.6369999999999999E-2</v>
       </c>
       <c r="D37">
-        <v>1.9599999999999999E-2</v>
+        <v>1.9449999999999999E-2</v>
       </c>
       <c r="E37">
-        <v>2.4510000000000001E-2</v>
+        <v>2.3560000000000001E-2</v>
       </c>
       <c r="F37">
-        <v>4.1450000000000001E-2</v>
+        <v>3.6240000000000001E-2</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
@@ -6386,13 +6385,13 @@
       </c>
       <c r="L37">
         <f t="shared" si="2"/>
-        <v>1.9599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.9449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -6406,10 +6405,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>Point</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <f>CONCATENATE(A42,"_rhat")</f>
@@ -6450,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K49" si="5">CONCATENATE(A43,"_rhat")</f>
@@ -6469,7 +6468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -6477,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="5"/>
@@ -6488,15 +6487,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="1">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="5"/>
@@ -6504,10 +6503,10 @@
       </c>
       <c r="L45">
         <f t="shared" si="6"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="5"/>
@@ -6545,9 +6544,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6564,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -6583,13 +6582,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -6601,15 +6600,15 @@
       </c>
       <c r="L51">
         <f>A53</f>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -6629,40 +6628,40 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="B55">
-        <v>1182.4389000000001</v>
+        <v>10892.39</v>
       </c>
       <c r="C55">
-        <v>2382.0938999999998</v>
+        <v>27346.400000000001</v>
       </c>
       <c r="D55">
-        <v>982.67190000000005</v>
+        <v>10559.51</v>
       </c>
       <c r="E55">
-        <v>1345.1197</v>
+        <v>15190.95</v>
       </c>
       <c r="F55">
-        <v>59087.179900000003</v>
+        <v>603274.32999999996</v>
       </c>
       <c r="G55">
-        <v>2934.6669000000002</v>
+        <v>23599.14</v>
       </c>
       <c r="H55">
-        <v>8593.81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>106351.48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="B56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57">
-        <v>15876.477999999999</v>
+        <v>140446.29999999999</v>
       </c>
     </row>
   </sheetData>
